--- a/CorrelationMatrix.xlsx
+++ b/CorrelationMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Metrics\GQM-Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F79E97-562D-46F2-A9DA-A49F9700A6AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F92190-7C63-472B-8581-55AC39719AAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,26 +484,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -573,58 +554,58 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.13994025837518639</v>
+        <v>0.18994262925481609</v>
       </c>
       <c r="D2">
-        <v>-9.4958115089535222E-2</v>
+        <v>-8.4199251771649206E-2</v>
       </c>
       <c r="E2">
-        <v>-6.5531075799385635E-2</v>
+        <v>-0.1061100131282583</v>
       </c>
       <c r="F2">
-        <v>4.9691876652327591E-2</v>
+        <v>4.9490486190857677E-2</v>
       </c>
       <c r="G2">
-        <v>5.0936545587198123E-2</v>
+        <v>0.1023474264822348</v>
       </c>
       <c r="H2">
-        <v>-4.8814786317300927E-2</v>
+        <v>-6.0489823291404177E-2</v>
       </c>
       <c r="I2">
-        <v>0.11439283155795631</v>
+        <v>0.1024740505402278</v>
       </c>
       <c r="J2">
-        <v>3.0598609189214088E-4</v>
+        <v>3.5419241800783187E-2</v>
       </c>
       <c r="K2">
-        <v>-1.20758755007228E-2</v>
+        <v>2.5336164015232331E-2</v>
       </c>
       <c r="L2">
-        <v>2.7933275711528149E-2</v>
+        <v>0.10801490891908611</v>
       </c>
       <c r="M2">
-        <v>-7.8304675160069934E-2</v>
+        <v>-0.10010285854964331</v>
       </c>
       <c r="N2">
-        <v>1.5872369531180229E-2</v>
+        <v>-2.4221195087645701E-2</v>
       </c>
       <c r="O2">
-        <v>-0.1393873757038703</v>
+        <v>-0.13314398751293721</v>
       </c>
       <c r="P2">
-        <v>-0.1357449836940775</v>
+        <v>-0.15276095894754699</v>
       </c>
       <c r="Q2">
-        <v>-0.1055805637402758</v>
+        <v>-9.503865578730826E-2</v>
       </c>
       <c r="R2">
-        <v>-6.9165097033795683E-2</v>
+        <v>-7.3637295034739689E-2</v>
       </c>
       <c r="S2">
-        <v>-0.21118239264297251</v>
+        <v>-0.20030874697393991</v>
       </c>
       <c r="T2">
-        <v>-3.1182323385601011E-2</v>
+        <v>-4.8996138274622861E-2</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -632,61 +613,61 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.13994025837518639</v>
+        <v>0.18994262925481609</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1507197299352995</v>
+        <v>0.1272969318421818</v>
       </c>
       <c r="E3">
-        <v>0.15973279859925091</v>
+        <v>0.13144911276414981</v>
       </c>
       <c r="F3">
-        <v>9.7889416357963527E-2</v>
+        <v>6.7144758596747428E-2</v>
       </c>
       <c r="G3">
-        <v>0.2733272412831404</v>
+        <v>0.2104899810657137</v>
       </c>
       <c r="H3">
-        <v>0.1136127368011087</v>
+        <v>7.674507596011286E-2</v>
       </c>
       <c r="I3">
-        <v>-0.12724211840601959</v>
+        <v>-0.1318291295213837</v>
       </c>
       <c r="J3">
-        <v>-0.1683839538660844</v>
+        <v>-0.10163859659510401</v>
       </c>
       <c r="K3">
-        <v>-2.1977853565100468E-2</v>
+        <v>2.7028955619376981E-2</v>
       </c>
       <c r="L3">
-        <v>8.9437234528973123E-3</v>
+        <v>-1.3942875892922729E-2</v>
       </c>
       <c r="M3">
-        <v>-0.29448298785788168</v>
+        <v>-8.4429590004018645E-2</v>
       </c>
       <c r="N3">
-        <v>1.9672421097692031E-2</v>
+        <v>0.15043672028057889</v>
       </c>
       <c r="O3">
-        <v>-0.21917515528002979</v>
+        <v>-0.28336643417335139</v>
       </c>
       <c r="P3">
-        <v>1.9798026313749231E-2</v>
+        <v>-9.3321155675943956E-2</v>
       </c>
       <c r="Q3">
-        <v>-8.9993518962080146E-2</v>
+        <v>-0.1170083650687562</v>
       </c>
       <c r="R3">
-        <v>-0.20526383813047311</v>
+        <v>-0.25868171241168753</v>
       </c>
       <c r="S3">
-        <v>-3.1598275504145637E-2</v>
+        <v>-3.7721347074707402E-2</v>
       </c>
       <c r="T3">
-        <v>-0.24370396238605949</v>
+        <v>-0.2497456623717173</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -694,61 +675,61 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-9.4958115089535222E-2</v>
+        <v>-8.4199251771649206E-2</v>
       </c>
       <c r="C4">
-        <v>0.1507197299352995</v>
+        <v>0.1272969318421818</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.37098065134613878</v>
+        <v>0.39168597217739481</v>
       </c>
       <c r="F4">
-        <v>0.2161077800877364</v>
+        <v>0.20379953637080711</v>
       </c>
       <c r="G4">
-        <v>0.29494970713095608</v>
+        <v>0.28964289511465041</v>
       </c>
       <c r="H4">
-        <v>0.28156065443041262</v>
+        <v>0.27054210536987311</v>
       </c>
       <c r="I4">
-        <v>0.20162946655213579</v>
+        <v>0.2198644525148741</v>
       </c>
       <c r="J4">
-        <v>0.2336134931180476</v>
+        <v>0.26896687994660251</v>
       </c>
       <c r="K4">
-        <v>0.26212937337808262</v>
+        <v>0.28471320045376858</v>
       </c>
       <c r="L4">
-        <v>0.1441546082199367</v>
+        <v>0.13815573248082441</v>
       </c>
       <c r="M4">
-        <v>-9.3450367387168751E-3</v>
+        <v>-2.14177520485665E-2</v>
       </c>
       <c r="N4">
-        <v>-5.1008419639030259E-2</v>
+        <v>-4.004251869547263E-2</v>
       </c>
       <c r="O4">
-        <v>8.0526471823550536E-2</v>
+        <v>9.295614107172033E-2</v>
       </c>
       <c r="P4">
-        <v>0.34971857352402702</v>
+        <v>0.29627775086814673</v>
       </c>
       <c r="Q4">
-        <v>0.2003921316197512</v>
+        <v>0.1763491931740874</v>
       </c>
       <c r="R4">
-        <v>5.0475109619090068E-2</v>
+        <v>1.9296403550283441E-2</v>
       </c>
       <c r="S4">
-        <v>0.19804565080723899</v>
+        <v>0.1529460242345301</v>
       </c>
       <c r="T4">
-        <v>5.5540378211222909E-2</v>
+        <v>4.3889531656012462E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -756,61 +737,61 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-6.5531075799385635E-2</v>
+        <v>-0.1061100131282583</v>
       </c>
       <c r="C5">
-        <v>0.15973279859925091</v>
+        <v>0.13144911276414981</v>
       </c>
       <c r="D5">
-        <v>0.37098065134613878</v>
+        <v>0.39168597217739481</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.36650917276995842</v>
+        <v>0.39613959088027489</v>
       </c>
       <c r="G5">
-        <v>0.36065506434078443</v>
+        <v>0.35503165576170592</v>
       </c>
       <c r="H5">
-        <v>0.1796158004401005</v>
+        <v>0.23631299056052121</v>
       </c>
       <c r="I5">
-        <v>0.16475557094587581</v>
+        <v>0.21159107847729769</v>
       </c>
       <c r="J5">
-        <v>0.19056208810095721</v>
+        <v>0.20062677001349241</v>
       </c>
       <c r="K5">
-        <v>0.1064998284813493</v>
+        <v>9.5262035524775412E-2</v>
       </c>
       <c r="L5">
-        <v>0.34927787978421748</v>
+        <v>0.41251579438306613</v>
       </c>
       <c r="M5">
-        <v>-0.2103920292940529</v>
+        <v>-0.21131574996613639</v>
       </c>
       <c r="N5">
-        <v>-0.15190314759914031</v>
+        <v>-0.1162713332338592</v>
       </c>
       <c r="O5">
-        <v>4.0128694664704617E-2</v>
+        <v>0.10541240595881519</v>
       </c>
       <c r="P5">
-        <v>0.47528157844930208</v>
+        <v>0.47053123423860532</v>
       </c>
       <c r="Q5">
-        <v>8.9777676704877837E-2</v>
+        <v>0.13941248874803991</v>
       </c>
       <c r="R5">
-        <v>3.908304210620988E-2</v>
+        <v>8.6979277660726453E-2</v>
       </c>
       <c r="S5">
-        <v>0.1230366701801361</v>
+        <v>0.16567154799986411</v>
       </c>
       <c r="T5">
-        <v>0.1021407488304503</v>
+        <v>0.1061277153294308</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -818,61 +799,61 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.9691876652327591E-2</v>
+        <v>4.9490486190857677E-2</v>
       </c>
       <c r="C6">
-        <v>9.7889416357963527E-2</v>
+        <v>6.7144758596747428E-2</v>
       </c>
       <c r="D6">
-        <v>0.2161077800877364</v>
+        <v>0.20379953637080711</v>
       </c>
       <c r="E6">
-        <v>0.36650917276995842</v>
+        <v>0.39613959088027489</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.38525214440471017</v>
+        <v>0.44042660780383858</v>
       </c>
       <c r="H6">
-        <v>0.10113883675154201</v>
+        <v>0.11622554335481711</v>
       </c>
       <c r="I6">
-        <v>0.1133225228469619</v>
+        <v>0.1149884458994687</v>
       </c>
       <c r="J6">
-        <v>0.19510682905569249</v>
+        <v>0.18691342144428061</v>
       </c>
       <c r="K6">
-        <v>-7.8466697392443427E-2</v>
+        <v>-7.9665021366830638E-2</v>
       </c>
       <c r="L6">
-        <v>0.30082226333094431</v>
+        <v>0.33858789094460301</v>
       </c>
       <c r="M6">
-        <v>-0.22949943506452181</v>
+        <v>-0.2163948890825183</v>
       </c>
       <c r="N6">
-        <v>-9.6734867891060894E-2</v>
+        <v>-8.8786523462617825E-2</v>
       </c>
       <c r="O6">
-        <v>0.28422227651340121</v>
+        <v>0.26180921428416448</v>
       </c>
       <c r="P6">
-        <v>0.30327288768448851</v>
+        <v>0.31552218747044691</v>
       </c>
       <c r="Q6">
-        <v>0.20091497351301149</v>
+        <v>0.20657491854957871</v>
       </c>
       <c r="R6">
-        <v>0.32366070175909811</v>
+        <v>0.32696618020208751</v>
       </c>
       <c r="S6">
-        <v>0.2388975831760464</v>
+        <v>0.22338399522340399</v>
       </c>
       <c r="T6">
-        <v>0.28163948858854698</v>
+        <v>0.26624715201256371</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -880,61 +861,61 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.0936545587198123E-2</v>
+        <v>0.1023474264822348</v>
       </c>
       <c r="C7">
-        <v>0.2733272412831404</v>
+        <v>0.2104899810657137</v>
       </c>
       <c r="D7">
-        <v>0.29494970713095608</v>
+        <v>0.28964289511465041</v>
       </c>
       <c r="E7">
-        <v>0.36065506434078443</v>
+        <v>0.35503165576170592</v>
       </c>
       <c r="F7">
-        <v>0.38525214440471017</v>
+        <v>0.44042660780383858</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.34678212537792252</v>
+        <v>0.38828222421099212</v>
       </c>
       <c r="I7">
-        <v>0.1900001686605359</v>
+        <v>0.15943016207690841</v>
       </c>
       <c r="J7">
-        <v>0.28396072978527243</v>
+        <v>0.25017818568294858</v>
       </c>
       <c r="K7">
-        <v>7.6970604315268172E-3</v>
+        <v>3.8199139948531392E-2</v>
       </c>
       <c r="L7">
-        <v>0.36856274480511542</v>
+        <v>0.3116469844216842</v>
       </c>
       <c r="M7">
-        <v>-0.162399143213868</v>
+        <v>-0.17919026488336801</v>
       </c>
       <c r="N7">
-        <v>-0.16018446321955471</v>
+        <v>-0.14300429483545329</v>
       </c>
       <c r="O7">
-        <v>0.1468632144680849</v>
+        <v>0.12683329332180099</v>
       </c>
       <c r="P7">
-        <v>0.43739050259035728</v>
+        <v>0.3882252419100079</v>
       </c>
       <c r="Q7">
-        <v>0.1834918066237719</v>
+        <v>0.16946324235162219</v>
       </c>
       <c r="R7">
-        <v>0.1572591949546287</v>
+        <v>0.1547441539115266</v>
       </c>
       <c r="S7">
-        <v>0.34362636290235821</v>
+        <v>0.355741876116342</v>
       </c>
       <c r="T7">
-        <v>3.9403868266174702E-2</v>
+        <v>5.3029250640462919E-2</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -942,61 +923,61 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-4.8814786317300927E-2</v>
+        <v>-6.0489823291404177E-2</v>
       </c>
       <c r="C8">
-        <v>0.1136127368011087</v>
+        <v>7.674507596011286E-2</v>
       </c>
       <c r="D8">
-        <v>0.28156065443041262</v>
+        <v>0.27054210536987311</v>
       </c>
       <c r="E8">
-        <v>0.1796158004401005</v>
+        <v>0.23631299056052121</v>
       </c>
       <c r="F8">
-        <v>0.10113883675154201</v>
+        <v>0.11622554335481711</v>
       </c>
       <c r="G8">
-        <v>0.34678212537792252</v>
+        <v>0.38828222421099212</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.45103344485479041</v>
+        <v>0.46946522052045853</v>
       </c>
       <c r="J8">
-        <v>0.24840053213990471</v>
+        <v>0.25501295053579359</v>
       </c>
       <c r="K8">
-        <v>0.26525654483011368</v>
+        <v>0.24291858301457819</v>
       </c>
       <c r="L8">
-        <v>9.3832309715123921E-2</v>
+        <v>0.1957008998262168</v>
       </c>
       <c r="M8">
-        <v>-0.17596631214664299</v>
+        <v>-0.14524214739626981</v>
       </c>
       <c r="N8">
-        <v>3.0122436657203079E-2</v>
+        <v>2.8471736474430371E-2</v>
       </c>
       <c r="O8">
-        <v>-0.1174298474009403</v>
+        <v>-9.5800048662285989E-2</v>
       </c>
       <c r="P8">
-        <v>0.39621531464809351</v>
+        <v>0.40179537161139728</v>
       </c>
       <c r="Q8">
-        <v>0.29272977932140137</v>
+        <v>0.25688033296556151</v>
       </c>
       <c r="R8">
-        <v>1.744757310768652E-2</v>
+        <v>3.1132644999997849E-2</v>
       </c>
       <c r="S8">
-        <v>0.24032551394276999</v>
+        <v>0.2333203458792073</v>
       </c>
       <c r="T8">
-        <v>-6.1253030366025751E-2</v>
+        <v>-7.4363834675461343E-2</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -1004,61 +985,61 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.11439283155795631</v>
+        <v>0.1024740505402278</v>
       </c>
       <c r="C9">
-        <v>-0.12724211840601959</v>
+        <v>-0.1318291295213837</v>
       </c>
       <c r="D9">
-        <v>0.20162946655213579</v>
+        <v>0.2198644525148741</v>
       </c>
       <c r="E9">
-        <v>0.16475557094587581</v>
+        <v>0.21159107847729769</v>
       </c>
       <c r="F9">
-        <v>0.1133225228469619</v>
+        <v>0.1149884458994687</v>
       </c>
       <c r="G9">
-        <v>0.1900001686605359</v>
+        <v>0.15943016207690841</v>
       </c>
       <c r="H9">
-        <v>0.45103344485479041</v>
+        <v>0.46946522052045853</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.52945062765190487</v>
+        <v>0.54482964362871744</v>
       </c>
       <c r="K9">
-        <v>0.2321892703553193</v>
+        <v>0.27479566577571962</v>
       </c>
       <c r="L9">
-        <v>0.17137383142609869</v>
+        <v>0.2267417346831106</v>
       </c>
       <c r="M9">
-        <v>6.3075304594410547E-2</v>
+        <v>5.8739026261169662E-2</v>
       </c>
       <c r="N9">
-        <v>3.8871133283726531E-2</v>
+        <v>3.8840459880942438E-2</v>
       </c>
       <c r="O9">
-        <v>3.1870285729735527E-2</v>
+        <v>2.1870443826382209E-2</v>
       </c>
       <c r="P9">
-        <v>0.28573818727811401</v>
+        <v>0.29083772107557659</v>
       </c>
       <c r="Q9">
-        <v>0.18045547447391239</v>
+        <v>0.16427734741590269</v>
       </c>
       <c r="R9">
-        <v>0.20558332803810589</v>
+        <v>0.19799712130451019</v>
       </c>
       <c r="S9">
-        <v>0.27740799605171967</v>
+        <v>0.25817462963129512</v>
       </c>
       <c r="T9">
-        <v>0.21225037790860651</v>
+        <v>0.1769483192917633</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -1066,61 +1047,61 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.0598609189214088E-4</v>
+        <v>3.5419241800783187E-2</v>
       </c>
       <c r="C10">
-        <v>-0.1683839538660844</v>
+        <v>-0.10163859659510401</v>
       </c>
       <c r="D10">
-        <v>0.2336134931180476</v>
+        <v>0.26896687994660251</v>
       </c>
       <c r="E10">
-        <v>0.19056208810095721</v>
+        <v>0.20062677001349241</v>
       </c>
       <c r="F10">
-        <v>0.19510682905569249</v>
+        <v>0.18691342144428061</v>
       </c>
       <c r="G10">
-        <v>0.28396072978527243</v>
+        <v>0.25017818568294858</v>
       </c>
       <c r="H10">
-        <v>0.24840053213990471</v>
+        <v>0.25501295053579359</v>
       </c>
       <c r="I10">
-        <v>0.52945062765190487</v>
+        <v>0.54482964362871744</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.44798941182628449</v>
+        <v>0.50880053535050229</v>
       </c>
       <c r="L10">
-        <v>0.1323703914447798</v>
+        <v>0.11789181846372811</v>
       </c>
       <c r="M10">
-        <v>6.9128431188839226E-2</v>
+        <v>6.2041504296648661E-2</v>
       </c>
       <c r="N10">
-        <v>-0.1027387239818883</v>
+        <v>-0.1244195279313593</v>
       </c>
       <c r="O10">
-        <v>0.1769037376543045</v>
+        <v>0.17452292997929331</v>
       </c>
       <c r="P10">
-        <v>0.24911677574209731</v>
+        <v>0.23150041598931051</v>
       </c>
       <c r="Q10">
-        <v>9.4149450743492812E-3</v>
+        <v>6.5971956592732308E-3</v>
       </c>
       <c r="R10">
-        <v>0.25760945666948121</v>
+        <v>0.28069813705278662</v>
       </c>
       <c r="S10">
-        <v>0.26882261682805642</v>
+        <v>0.28080105870389632</v>
       </c>
       <c r="T10">
-        <v>0.27310006725533231</v>
+        <v>0.26410342308604401</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -1128,61 +1109,61 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1.20758755007228E-2</v>
+        <v>2.5336164015232331E-2</v>
       </c>
       <c r="C11">
-        <v>-2.1977853565100468E-2</v>
+        <v>2.7028955619376981E-2</v>
       </c>
       <c r="D11">
-        <v>0.26212937337808262</v>
+        <v>0.28471320045376858</v>
       </c>
       <c r="E11">
-        <v>0.1064998284813493</v>
+        <v>9.5262035524775412E-2</v>
       </c>
       <c r="F11">
-        <v>-7.8466697392443427E-2</v>
+        <v>-7.9665021366830638E-2</v>
       </c>
       <c r="G11">
-        <v>7.6970604315268172E-3</v>
+        <v>3.8199139948531392E-2</v>
       </c>
       <c r="H11">
-        <v>0.26525654483011368</v>
+        <v>0.24291858301457819</v>
       </c>
       <c r="I11">
-        <v>0.2321892703553193</v>
+        <v>0.27479566577571962</v>
       </c>
       <c r="J11">
-        <v>0.44798941182628449</v>
+        <v>0.50880053535050229</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>-0.18757586088820641</v>
+        <v>-0.1062862821770096</v>
       </c>
       <c r="M11">
-        <v>4.7137680303839483E-2</v>
+        <v>7.5395079529172959E-2</v>
       </c>
       <c r="N11">
-        <v>-3.0600972552083841E-2</v>
+        <v>-1.512734149127708E-3</v>
       </c>
       <c r="O11">
-        <v>-5.3092280216381058E-2</v>
+        <v>-2.4722328717047E-2</v>
       </c>
       <c r="P11">
-        <v>0.16810290955000709</v>
+        <v>0.14934327074336681</v>
       </c>
       <c r="Q11">
-        <v>9.5618789848390909E-2</v>
+        <v>9.8933882882254881E-2</v>
       </c>
       <c r="R11">
-        <v>1.772881639181962E-2</v>
+        <v>6.5764706454186306E-2</v>
       </c>
       <c r="S11">
-        <v>3.9884220435026228E-2</v>
+        <v>0.124755461008851</v>
       </c>
       <c r="T11">
-        <v>1.6793997032333089E-2</v>
+        <v>4.4561019459787583E-2</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -1190,61 +1171,61 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.7933275711528149E-2</v>
+        <v>0.10801490891908611</v>
       </c>
       <c r="C12">
-        <v>8.9437234528973123E-3</v>
+        <v>-1.3942875892922729E-2</v>
       </c>
       <c r="D12">
-        <v>0.1441546082199367</v>
+        <v>0.13815573248082441</v>
       </c>
       <c r="E12">
-        <v>0.34927787978421748</v>
+        <v>0.41251579438306613</v>
       </c>
       <c r="F12">
-        <v>0.30082226333094431</v>
+        <v>0.33858789094460301</v>
       </c>
       <c r="G12">
-        <v>0.36856274480511542</v>
+        <v>0.3116469844216842</v>
       </c>
       <c r="H12">
-        <v>9.3832309715123921E-2</v>
+        <v>0.1957008998262168</v>
       </c>
       <c r="I12">
-        <v>0.17137383142609869</v>
+        <v>0.2267417346831106</v>
       </c>
       <c r="J12">
-        <v>0.1323703914447798</v>
+        <v>0.11789181846372811</v>
       </c>
       <c r="K12">
-        <v>-0.18757586088820641</v>
+        <v>-0.1062862821770096</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>-5.5953372694179118E-2</v>
+        <v>-2.32578350497528E-2</v>
       </c>
       <c r="N12">
-        <v>-0.1187935142579838</v>
+        <v>-0.10502718676061019</v>
       </c>
       <c r="O12">
-        <v>0.1327552258454705</v>
+        <v>0.14014634614987229</v>
       </c>
       <c r="P12">
-        <v>0.3007163574724443</v>
+        <v>0.35587247438330533</v>
       </c>
       <c r="Q12">
-        <v>0.21085010750095831</v>
+        <v>0.26250698938140232</v>
       </c>
       <c r="R12">
-        <v>0.32057083017740251</v>
+        <v>0.36029305611042273</v>
       </c>
       <c r="S12">
-        <v>0.19525032232255871</v>
+        <v>0.1581956349619516</v>
       </c>
       <c r="T12">
-        <v>0.23392868783320381</v>
+        <v>0.26260865152825158</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -1252,61 +1233,61 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-7.8304675160069934E-2</v>
+        <v>-0.10010285854964331</v>
       </c>
       <c r="C13">
-        <v>-0.29448298785788168</v>
+        <v>-8.4429590004018645E-2</v>
       </c>
       <c r="D13">
-        <v>-9.3450367387168751E-3</v>
+        <v>-2.14177520485665E-2</v>
       </c>
       <c r="E13">
-        <v>-0.2103920292940529</v>
+        <v>-0.21131574996613639</v>
       </c>
       <c r="F13">
-        <v>-0.22949943506452181</v>
+        <v>-0.2163948890825183</v>
       </c>
       <c r="G13">
-        <v>-0.162399143213868</v>
+        <v>-0.17919026488336801</v>
       </c>
       <c r="H13">
-        <v>-0.17596631214664299</v>
+        <v>-0.14524214739626981</v>
       </c>
       <c r="I13">
-        <v>6.3075304594410547E-2</v>
+        <v>5.8739026261169662E-2</v>
       </c>
       <c r="J13">
-        <v>6.9128431188839226E-2</v>
+        <v>6.2041504296648661E-2</v>
       </c>
       <c r="K13">
-        <v>4.7137680303839483E-2</v>
+        <v>7.5395079529172959E-2</v>
       </c>
       <c r="L13">
-        <v>-5.5953372694179118E-2</v>
+        <v>-2.32578350497528E-2</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.29213101223057109</v>
+        <v>0.2475378380514896</v>
       </c>
       <c r="O13">
-        <v>4.5372132024823673E-2</v>
+        <v>2.659292544282266E-2</v>
       </c>
       <c r="P13">
-        <v>-9.7110244145447028E-2</v>
+        <v>-9.1444783480787203E-2</v>
       </c>
       <c r="Q13">
-        <v>-6.6182238860678311E-2</v>
+        <v>-6.3275584182746092E-2</v>
       </c>
       <c r="R13">
-        <v>7.8845399602353927E-2</v>
+        <v>6.3483619332076274E-2</v>
       </c>
       <c r="S13">
-        <v>5.8992002853699377E-2</v>
+        <v>2.6107597247702501E-2</v>
       </c>
       <c r="T13">
-        <v>0.1044117765342682</v>
+        <v>0.12688015824227639</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -1314,61 +1295,61 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.5872369531180229E-2</v>
+        <v>-2.4221195087645701E-2</v>
       </c>
       <c r="C14">
-        <v>1.9672421097692031E-2</v>
+        <v>0.15043672028057889</v>
       </c>
       <c r="D14">
-        <v>-5.1008419639030259E-2</v>
+        <v>-4.004251869547263E-2</v>
       </c>
       <c r="E14">
-        <v>-0.15190314759914031</v>
+        <v>-0.1162713332338592</v>
       </c>
       <c r="F14">
-        <v>-9.6734867891060894E-2</v>
+        <v>-8.8786523462617825E-2</v>
       </c>
       <c r="G14">
-        <v>-0.16018446321955471</v>
+        <v>-0.14300429483545329</v>
       </c>
       <c r="H14">
-        <v>3.0122436657203079E-2</v>
+        <v>2.8471736474430371E-2</v>
       </c>
       <c r="I14">
-        <v>3.8871133283726531E-2</v>
+        <v>3.8840459880942438E-2</v>
       </c>
       <c r="J14">
-        <v>-0.1027387239818883</v>
+        <v>-0.1244195279313593</v>
       </c>
       <c r="K14">
-        <v>-3.0600972552083841E-2</v>
+        <v>-1.512734149127708E-3</v>
       </c>
       <c r="L14">
-        <v>-0.1187935142579838</v>
+        <v>-0.10502718676061019</v>
       </c>
       <c r="M14">
-        <v>0.29213101223057109</v>
+        <v>0.2475378380514896</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>-0.2444741622269648</v>
+        <v>-0.23885660608051709</v>
       </c>
       <c r="P14">
-        <v>-0.28465483539245012</v>
+        <v>-0.31805010528498429</v>
       </c>
       <c r="Q14">
-        <v>-6.861906625942657E-2</v>
+        <v>-5.5702006707772291E-2</v>
       </c>
       <c r="R14">
-        <v>-0.25913336974576773</v>
+        <v>-0.26472025665188048</v>
       </c>
       <c r="S14">
-        <v>9.9937369559508285E-3</v>
+        <v>-1.208415540433895E-2</v>
       </c>
       <c r="T14">
-        <v>-0.2368002139799778</v>
+        <v>-0.220880144993684</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -1376,61 +1357,61 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.1393873757038703</v>
+        <v>-0.13314398751293721</v>
       </c>
       <c r="C15">
-        <v>-0.21917515528002979</v>
+        <v>-0.28336643417335139</v>
       </c>
       <c r="D15">
-        <v>8.0526471823550536E-2</v>
+        <v>9.295614107172033E-2</v>
       </c>
       <c r="E15">
-        <v>4.0128694664704617E-2</v>
+        <v>0.10541240595881519</v>
       </c>
       <c r="F15">
-        <v>0.28422227651340121</v>
+        <v>0.26180921428416448</v>
       </c>
       <c r="G15">
-        <v>0.1468632144680849</v>
+        <v>0.12683329332180099</v>
       </c>
       <c r="H15">
-        <v>-0.1174298474009403</v>
+        <v>-9.5800048662285989E-2</v>
       </c>
       <c r="I15">
-        <v>3.1870285729735527E-2</v>
+        <v>2.1870443826382209E-2</v>
       </c>
       <c r="J15">
-        <v>0.1769037376543045</v>
+        <v>0.17452292997929331</v>
       </c>
       <c r="K15">
-        <v>-5.3092280216381058E-2</v>
+        <v>-2.4722328717047E-2</v>
       </c>
       <c r="L15">
-        <v>0.1327552258454705</v>
+        <v>0.14014634614987229</v>
       </c>
       <c r="M15">
-        <v>4.5372132024823673E-2</v>
+        <v>2.659292544282266E-2</v>
       </c>
       <c r="N15">
-        <v>-0.2444741622269648</v>
+        <v>-0.23885660608051709</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.25049626080688242</v>
+        <v>0.27962036970978199</v>
       </c>
       <c r="Q15">
-        <v>0.1915708940475388</v>
+        <v>0.20409926506189061</v>
       </c>
       <c r="R15">
-        <v>0.44734515261820301</v>
+        <v>0.44348611812111488</v>
       </c>
       <c r="S15">
-        <v>0.23170827864196539</v>
+        <v>0.24147069114062999</v>
       </c>
       <c r="T15">
-        <v>0.30325662852949331</v>
+        <v>0.32505600738636742</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -1438,61 +1419,61 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.1357449836940775</v>
+        <v>-0.15276095894754699</v>
       </c>
       <c r="C16">
-        <v>1.9798026313749231E-2</v>
+        <v>-9.3321155675943956E-2</v>
       </c>
       <c r="D16">
-        <v>0.34971857352402702</v>
+        <v>0.29627775086814673</v>
       </c>
       <c r="E16">
-        <v>0.47528157844930208</v>
+        <v>0.47053123423860532</v>
       </c>
       <c r="F16">
-        <v>0.30327288768448851</v>
+        <v>0.31552218747044691</v>
       </c>
       <c r="G16">
-        <v>0.43739050259035728</v>
+        <v>0.3882252419100079</v>
       </c>
       <c r="H16">
-        <v>0.39621531464809351</v>
+        <v>0.40179537161139728</v>
       </c>
       <c r="I16">
-        <v>0.28573818727811401</v>
+        <v>0.29083772107557659</v>
       </c>
       <c r="J16">
-        <v>0.24911677574209731</v>
+        <v>0.23150041598931051</v>
       </c>
       <c r="K16">
-        <v>0.16810290955000709</v>
+        <v>0.14934327074336681</v>
       </c>
       <c r="L16">
-        <v>0.3007163574724443</v>
+        <v>0.35587247438330533</v>
       </c>
       <c r="M16">
-        <v>-9.7110244145447028E-2</v>
+        <v>-9.1444783480787203E-2</v>
       </c>
       <c r="N16">
-        <v>-0.28465483539245012</v>
+        <v>-0.31805010528498429</v>
       </c>
       <c r="O16">
-        <v>0.25049626080688242</v>
+        <v>0.27962036970978199</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.56429763074661599</v>
+        <v>0.56608601326676733</v>
       </c>
       <c r="R16">
-        <v>0.39139736857031232</v>
+        <v>0.41277808722464482</v>
       </c>
       <c r="S16">
-        <v>0.32768131606351392</v>
+        <v>0.31495568775438082</v>
       </c>
       <c r="T16">
-        <v>0.31848326999194232</v>
+        <v>0.34354239546556198</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -1500,61 +1481,61 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.1055805637402758</v>
+        <v>-9.503865578730826E-2</v>
       </c>
       <c r="C17">
-        <v>-8.9993518962080146E-2</v>
+        <v>-0.1170083650687562</v>
       </c>
       <c r="D17">
-        <v>0.2003921316197512</v>
+        <v>0.1763491931740874</v>
       </c>
       <c r="E17">
-        <v>8.9777676704877837E-2</v>
+        <v>0.13941248874803991</v>
       </c>
       <c r="F17">
-        <v>0.20091497351301149</v>
+        <v>0.20657491854957871</v>
       </c>
       <c r="G17">
-        <v>0.1834918066237719</v>
+        <v>0.16946324235162219</v>
       </c>
       <c r="H17">
-        <v>0.29272977932140137</v>
+        <v>0.25688033296556151</v>
       </c>
       <c r="I17">
-        <v>0.18045547447391239</v>
+        <v>0.16427734741590269</v>
       </c>
       <c r="J17">
-        <v>9.4149450743492812E-3</v>
+        <v>6.5971956592732308E-3</v>
       </c>
       <c r="K17">
-        <v>9.5618789848390909E-2</v>
+        <v>9.8933882882254881E-2</v>
       </c>
       <c r="L17">
-        <v>0.21085010750095831</v>
+        <v>0.26250698938140232</v>
       </c>
       <c r="M17">
-        <v>-6.6182238860678311E-2</v>
+        <v>-6.3275584182746092E-2</v>
       </c>
       <c r="N17">
-        <v>-6.861906625942657E-2</v>
+        <v>-5.5702006707772291E-2</v>
       </c>
       <c r="O17">
-        <v>0.1915708940475388</v>
+        <v>0.20409926506189061</v>
       </c>
       <c r="P17">
-        <v>0.56429763074661599</v>
+        <v>0.56608601326676733</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>0.38929272498594608</v>
+        <v>0.38653315928498089</v>
       </c>
       <c r="S17">
-        <v>0.39638497913657772</v>
+        <v>0.36957870669670778</v>
       </c>
       <c r="T17">
-        <v>0.15547442614510801</v>
+        <v>0.15035634211434071</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -1562,61 +1543,61 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-6.9165097033795683E-2</v>
+        <v>-7.3637295034739689E-2</v>
       </c>
       <c r="C18">
-        <v>-0.20526383813047311</v>
+        <v>-0.25868171241168753</v>
       </c>
       <c r="D18">
-        <v>5.0475109619090068E-2</v>
+        <v>1.9296403550283441E-2</v>
       </c>
       <c r="E18">
-        <v>3.908304210620988E-2</v>
+        <v>8.6979277660726453E-2</v>
       </c>
       <c r="F18">
-        <v>0.32366070175909811</v>
+        <v>0.32696618020208751</v>
       </c>
       <c r="G18">
-        <v>0.1572591949546287</v>
+        <v>0.1547441539115266</v>
       </c>
       <c r="H18">
-        <v>1.744757310768652E-2</v>
+        <v>3.1132644999997849E-2</v>
       </c>
       <c r="I18">
-        <v>0.20558332803810589</v>
+        <v>0.19799712130451019</v>
       </c>
       <c r="J18">
-        <v>0.25760945666948121</v>
+        <v>0.28069813705278662</v>
       </c>
       <c r="K18">
-        <v>1.772881639181962E-2</v>
+        <v>6.5764706454186306E-2</v>
       </c>
       <c r="L18">
-        <v>0.32057083017740251</v>
+        <v>0.36029305611042273</v>
       </c>
       <c r="M18">
-        <v>7.8845399602353927E-2</v>
+        <v>6.3483619332076274E-2</v>
       </c>
       <c r="N18">
-        <v>-0.25913336974576773</v>
+        <v>-0.26472025665188048</v>
       </c>
       <c r="O18">
-        <v>0.44734515261820301</v>
+        <v>0.44348611812111488</v>
       </c>
       <c r="P18">
-        <v>0.39139736857031232</v>
+        <v>0.41277808722464482</v>
       </c>
       <c r="Q18">
-        <v>0.38929272498594608</v>
+        <v>0.38653315928498089</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0.30771593168798489</v>
+        <v>0.29433393600336438</v>
       </c>
       <c r="T18">
-        <v>0.60685337813521822</v>
+        <v>0.60340257848786738</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -1624,61 +1605,61 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.21118239264297251</v>
+        <v>-0.20030874697393991</v>
       </c>
       <c r="C19">
-        <v>-3.1598275504145637E-2</v>
+        <v>-3.7721347074707402E-2</v>
       </c>
       <c r="D19">
-        <v>0.19804565080723899</v>
+        <v>0.1529460242345301</v>
       </c>
       <c r="E19">
-        <v>0.1230366701801361</v>
+        <v>0.16567154799986411</v>
       </c>
       <c r="F19">
-        <v>0.2388975831760464</v>
+        <v>0.22338399522340399</v>
       </c>
       <c r="G19">
-        <v>0.34362636290235821</v>
+        <v>0.355741876116342</v>
       </c>
       <c r="H19">
-        <v>0.24032551394276999</v>
+        <v>0.2333203458792073</v>
       </c>
       <c r="I19">
-        <v>0.27740799605171967</v>
+        <v>0.25817462963129512</v>
       </c>
       <c r="J19">
-        <v>0.26882261682805642</v>
+        <v>0.28080105870389632</v>
       </c>
       <c r="K19">
-        <v>3.9884220435026228E-2</v>
+        <v>0.124755461008851</v>
       </c>
       <c r="L19">
-        <v>0.19525032232255871</v>
+        <v>0.1581956349619516</v>
       </c>
       <c r="M19">
-        <v>5.8992002853699377E-2</v>
+        <v>2.6107597247702501E-2</v>
       </c>
       <c r="N19">
-        <v>9.9937369559508285E-3</v>
+        <v>-1.208415540433895E-2</v>
       </c>
       <c r="O19">
-        <v>0.23170827864196539</v>
+        <v>0.24147069114062999</v>
       </c>
       <c r="P19">
-        <v>0.32768131606351392</v>
+        <v>0.31495568775438082</v>
       </c>
       <c r="Q19">
-        <v>0.39638497913657772</v>
+        <v>0.36957870669670778</v>
       </c>
       <c r="R19">
-        <v>0.30771593168798489</v>
+        <v>0.29433393600336438</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>0.32037371806310061</v>
+        <v>0.28254847575655118</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -1686,58 +1667,58 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-3.1182323385601011E-2</v>
+        <v>-4.8996138274622861E-2</v>
       </c>
       <c r="C20">
-        <v>-0.24370396238605949</v>
+        <v>-0.2497456623717173</v>
       </c>
       <c r="D20">
-        <v>5.5540378211222909E-2</v>
+        <v>4.3889531656012462E-2</v>
       </c>
       <c r="E20">
-        <v>0.1021407488304503</v>
+        <v>0.1061277153294308</v>
       </c>
       <c r="F20">
-        <v>0.28163948858854698</v>
+        <v>0.26624715201256371</v>
       </c>
       <c r="G20">
-        <v>3.9403868266174702E-2</v>
+        <v>5.3029250640462919E-2</v>
       </c>
       <c r="H20">
-        <v>-6.1253030366025751E-2</v>
+        <v>-7.4363834675461343E-2</v>
       </c>
       <c r="I20">
-        <v>0.21225037790860651</v>
+        <v>0.1769483192917633</v>
       </c>
       <c r="J20">
-        <v>0.27310006725533231</v>
+        <v>0.26410342308604401</v>
       </c>
       <c r="K20">
-        <v>1.6793997032333089E-2</v>
+        <v>4.4561019459787583E-2</v>
       </c>
       <c r="L20">
-        <v>0.23392868783320381</v>
+        <v>0.26260865152825158</v>
       </c>
       <c r="M20">
-        <v>0.1044117765342682</v>
+        <v>0.12688015824227639</v>
       </c>
       <c r="N20">
-        <v>-0.2368002139799778</v>
+        <v>-0.220880144993684</v>
       </c>
       <c r="O20">
-        <v>0.30325662852949331</v>
+        <v>0.32505600738636742</v>
       </c>
       <c r="P20">
-        <v>0.31848326999194232</v>
+        <v>0.34354239546556198</v>
       </c>
       <c r="Q20">
-        <v>0.15547442614510801</v>
+        <v>0.15035634211434071</v>
       </c>
       <c r="R20">
-        <v>0.60685337813521822</v>
+        <v>0.60340257848786738</v>
       </c>
       <c r="S20">
-        <v>0.32037371806310061</v>
+        <v>0.28254847575655118</v>
       </c>
       <c r="T20">
         <v>1</v>

--- a/CorrelationMatrix.xlsx
+++ b/CorrelationMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Metrics\GQM-Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F92190-7C63-472B-8581-55AC39719AAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2BA636-EAF1-433D-801F-6A2EA00E6351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,11 +480,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
